--- a/Meas/figs858/Mappe1.xlsx
+++ b/Meas/figs858/Mappe1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\7. semester\P7\Meas\figs858\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P7\P7\Meas\figs858\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +150,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -184,6 +202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -336,204 +371,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>-39.176832441446997</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>-36.275068566533299</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>-33.182699936348598</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>-40.202439294479298</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>-32.616230182282202</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>-31.283839235550001</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>-40.5286184873639</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>-26.9292301822822</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>-37.947787309917999</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>-28.639181326828599</v>
       </c>
+      <c r="L1" s="1">
+        <f>AVERAGE(A1:J1)</f>
+        <v>-34.678192696303306</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>-50.023681326828601</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>-46.425585556494497</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>-41.0212571697177</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-41.149814975009399</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-42.7733202106742</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-39.024293137766897</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-41.763438617602098</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-34.051767384204403</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-41.5490546940608</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-35.875484900603297</v>
       </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L6" si="0">AVERAGE(A2:J2)</f>
+        <v>-41.365769797296196</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>-61.762734900603299</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-56.521087110148002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>-51.2789435665333</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-45.3166779228563</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-53.7406598744587</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-49.736891544737098</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-43.3569736894665</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-42.792784874458697</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-43.168894586403297</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-42.480440532186599</v>
       </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>-49.015608860185175</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>-69.156815532186599</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-65.842142741731294</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-62.224210697537899</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-51.295714235550001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-66.769289129847706</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-59.268696214292802</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>-49.223589235550001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>-54.040414129847697</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>-46.568888471595699</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>-48.498972148484299</v>
       </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>-57.288873253662395</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>-80.278472148484298</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-78.7553243580291</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-70.157824358029103</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-61.826507169717701</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-74.361989210794107</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-68.2995914203388</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-58.586882169717697</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>-65.429739210794096</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-52.602668137766898</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-51.0989481335614</v>
       </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>-66.139794631723319</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>-81.846323133561398</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-80.359175343106102</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-74.363675343106095</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-73.152023643831996</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-78.384604174472003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-72.507831384016797</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>-67.725648643832002</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>-70.718229174472</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>-64.022898643831994</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>-59.847479174471999</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>-72.292788865870236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>AVERAGE(A1:A6)</f>
+        <v>-63.707476580518524</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:J9" si="1">AVERAGE(B1:B6)</f>
+        <v>-60.696397279340395</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>-55.371435178545454</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>-52.15719620690745</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>-58.107682130421495</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>-53.353523822783735</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>-50.197525140588702</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>-48.993694159343185</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>-47.643365307262776</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>-44.406751036022705</v>
       </c>
     </row>
   </sheetData>
